--- a/ЭКОНОМЕТРИКА/В процессе/Лаба4(Квартиры).xlsx
+++ b/ЭКОНОМЕТРИКА/В процессе/Лаба4(Квартиры).xlsx
@@ -8,13 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Учеба 3 курс 2 семестр\Studies\ЭКОНОМЕТРИКА\В процессе\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740FD477-F82C-4DBB-9C16-8CF5D762D07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090573AA-A9FB-4D18-A06D-FC20AAE0DB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$E$233</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -387,10 +396,10 @@
     <t>n</t>
   </si>
   <si>
-    <t>Имеем регрессию: Z= a2*x2+a3*x3+a4*x4+a6*x6+a7*x7+a9*x9+a11*x11+a12*x12</t>
-  </si>
-  <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>Имеем регрессию: Z= (-80,84006*x2) + 10,61585*x4 + (-47,59050)*x5</t>
   </si>
 </sst>
 </file>
@@ -588,7 +597,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -679,8 +688,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -963,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M238" sqref="M238"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D225" sqref="D225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5597,7 +5608,7 @@
         <v>115</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K152" s="14"/>
       <c r="L152" s="14"/>
@@ -7943,7 +7954,7 @@
         <v>79</v>
       </c>
       <c r="B223" s="14">
-        <v>227.94705326267058</v>
+        <v>227.94705326267101</v>
       </c>
       <c r="C223" s="14">
         <v>183.98020972346359</v>
@@ -7952,7 +7963,7 @@
         <v>1.2389759398866462</v>
       </c>
       <c r="E223" s="14">
-        <v>0.22240060997336122</v>
+        <v>0.222400609973361</v>
       </c>
       <c r="F223" s="14">
         <v>-143.60851802426106</v>
@@ -7980,7 +7991,7 @@
         <v>92</v>
       </c>
       <c r="B224" s="14">
-        <v>36.460111231886543</v>
+        <v>36.460111231886501</v>
       </c>
       <c r="C224" s="14">
         <v>14.604002899373759</v>
@@ -7988,8 +7999,8 @@
       <c r="D224" s="14">
         <v>2.4965834013529267</v>
       </c>
-      <c r="E224" s="27">
-        <v>1.6650921165217381E-2</v>
+      <c r="E224" s="14">
+        <v>0.116650921165217</v>
       </c>
       <c r="F224" s="14">
         <v>6.9667290441565832</v>
@@ -8012,7 +8023,7 @@
       <c r="P224" s="10"/>
       <c r="Q224" s="10"/>
     </row>
-    <row r="225" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="14" t="s">
         <v>93</v>
       </c>
@@ -8025,8 +8036,8 @@
       <c r="D225" s="14">
         <v>-6.1734140168934699</v>
       </c>
-      <c r="E225" s="27">
-        <v>2.4514177744122626E-7</v>
+      <c r="E225" s="36">
+        <v>2.45141777441226E-7</v>
       </c>
       <c r="F225" s="14">
         <v>-107.28569567041484</v>
@@ -8049,12 +8060,12 @@
       <c r="P225" s="10"/>
       <c r="Q225" s="10"/>
     </row>
-    <row r="226" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B226" s="14">
-        <v>91.954780263707377</v>
+        <v>91.954780263707406</v>
       </c>
       <c r="C226" s="14">
         <v>10.312242727108783</v>
@@ -8062,8 +8073,8 @@
       <c r="D226" s="14">
         <v>8.917049636736829</v>
       </c>
-      <c r="E226" s="27">
-        <v>3.7926866363194591E-11</v>
+      <c r="E226" s="14">
+        <v>3.79268663631946</v>
       </c>
       <c r="F226" s="14">
         <v>71.128783579175078</v>
@@ -8086,12 +8097,12 @@
       <c r="P226" s="10"/>
       <c r="Q226" s="10"/>
     </row>
-    <row r="227" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="14" t="s">
         <v>95</v>
       </c>
       <c r="B227" s="14">
-        <v>10.615855647728578</v>
+        <v>10.615855647728599</v>
       </c>
       <c r="C227" s="14">
         <v>4.0027290088475196</v>
@@ -8100,7 +8111,7 @@
         <v>2.6521544736762319</v>
       </c>
       <c r="E227" s="27">
-        <v>1.1321659039529251E-2</v>
+        <v>1.1321659039528999E-2</v>
       </c>
       <c r="F227" s="14">
         <v>2.5321804207868084</v>
@@ -8123,12 +8134,12 @@
       <c r="P227" s="10"/>
       <c r="Q227" s="10"/>
     </row>
-    <row r="228" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="14" t="s">
         <v>96</v>
       </c>
       <c r="B228" s="14">
-        <v>-47.590500995714244</v>
+        <v>-47.590500995714201</v>
       </c>
       <c r="C228" s="14">
         <v>6.1382488507197115</v>
@@ -8160,7 +8171,7 @@
       <c r="P228" s="10"/>
       <c r="Q228" s="10"/>
     </row>
-    <row r="229" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="14" t="s">
         <v>97</v>
       </c>
@@ -8173,8 +8184,8 @@
       <c r="D229" s="14">
         <v>15.488949026197405</v>
       </c>
-      <c r="E229" s="27">
-        <v>9.8167848963640403E-19</v>
+      <c r="E229" s="37">
+        <v>1.45965731295659</v>
       </c>
       <c r="F229" s="14">
         <v>37.368772856055429</v>
@@ -8197,7 +8208,7 @@
       <c r="P229" s="10"/>
       <c r="Q229" s="10"/>
     </row>
-    <row r="230" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="14" t="s">
         <v>98</v>
       </c>
@@ -8210,8 +8221,8 @@
       <c r="D230" s="14">
         <v>8.6478472152047097</v>
       </c>
-      <c r="E230" s="27">
-        <v>8.7019548869101853E-11</v>
+      <c r="E230" s="14">
+        <v>8.7019548869101904</v>
       </c>
       <c r="F230" s="14">
         <v>96.140719057683441</v>
@@ -8234,7 +8245,7 @@
       <c r="P230" s="10"/>
       <c r="Q230" s="10"/>
     </row>
-    <row r="231" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="15" t="s">
         <v>99</v>
       </c>
@@ -8247,8 +8258,8 @@
       <c r="D231" s="15">
         <v>6.6239681197523064</v>
       </c>
-      <c r="E231" s="28">
-        <v>5.6112741117776207E-8</v>
+      <c r="E231" s="15">
+        <v>5.6112741117776004</v>
       </c>
       <c r="F231" s="15">
         <v>62.001535941080206</v>
@@ -8271,7 +8282,7 @@
       <c r="P231" s="10"/>
       <c r="Q231" s="10"/>
     </row>
-    <row r="232" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J232" s="10"/>
       <c r="K232" s="10"/>
       <c r="L232" s="10"/>
@@ -8281,7 +8292,7 @@
       <c r="P232" s="10"/>
       <c r="Q232" s="10"/>
     </row>
-    <row r="233" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J233" s="10"/>
       <c r="K233" s="10"/>
       <c r="L233" s="10"/>
@@ -8291,7 +8302,7 @@
       <c r="P233" s="10"/>
       <c r="Q233" s="10"/>
     </row>
-    <row r="234" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J234" s="10"/>
       <c r="K234" s="10"/>
       <c r="L234" s="10"/>
@@ -8301,7 +8312,7 @@
       <c r="P234" s="10"/>
       <c r="Q234" s="10"/>
     </row>
-    <row r="235" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>104</v>
       </c>
@@ -8314,7 +8325,7 @@
       <c r="P235" s="10"/>
       <c r="Q235" s="10"/>
     </row>
-    <row r="236" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J236" s="10"/>
       <c r="K236" s="10"/>
       <c r="L236" s="10"/>
@@ -8324,7 +8335,7 @@
       <c r="P236" s="10"/>
       <c r="Q236" s="10"/>
     </row>
-    <row r="237" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="16" t="s">
         <v>105</v>
       </c>
@@ -8335,7 +8346,7 @@
         <v>107</v>
       </c>
       <c r="D237" s="35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E237" s="35"/>
       <c r="F237" s="35"/>
@@ -8344,14 +8355,15 @@
       <c r="I237" s="35"/>
       <c r="J237" s="35"/>
       <c r="K237" s="35"/>
-      <c r="L237" s="10"/>
-      <c r="M237" s="10"/>
-      <c r="N237" s="10"/>
-      <c r="O237" s="10"/>
-      <c r="P237" s="10"/>
-      <c r="Q237" s="10"/>
-    </row>
-    <row r="238" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L237" s="35"/>
+      <c r="M237" s="35"/>
+      <c r="N237" s="35"/>
+      <c r="O237" s="35"/>
+      <c r="P237" s="35"/>
+      <c r="Q237" s="35"/>
+      <c r="R237" s="35"/>
+    </row>
+    <row r="238" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="14">
         <v>1</v>
       </c>
@@ -8369,14 +8381,15 @@
       <c r="I238" s="35"/>
       <c r="J238" s="35"/>
       <c r="K238" s="35"/>
-      <c r="L238" s="10"/>
-      <c r="M238" s="10"/>
-      <c r="N238" s="10"/>
-      <c r="O238" s="10"/>
-      <c r="P238" s="10"/>
-      <c r="Q238" s="10"/>
-    </row>
-    <row r="239" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L238" s="35"/>
+      <c r="M238" s="35"/>
+      <c r="N238" s="35"/>
+      <c r="O238" s="35"/>
+      <c r="P238" s="35"/>
+      <c r="Q238" s="35"/>
+      <c r="R238" s="35"/>
+    </row>
+    <row r="239" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
         <v>2</v>
       </c>
@@ -8394,14 +8407,15 @@
       <c r="I239" s="35"/>
       <c r="J239" s="35"/>
       <c r="K239" s="35"/>
-      <c r="L239" s="10"/>
-      <c r="M239" s="10"/>
-      <c r="N239" s="10"/>
-      <c r="O239" s="10"/>
-      <c r="P239" s="10"/>
-      <c r="Q239" s="10"/>
-    </row>
-    <row r="240" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L239" s="35"/>
+      <c r="M239" s="35"/>
+      <c r="N239" s="35"/>
+      <c r="O239" s="35"/>
+      <c r="P239" s="35"/>
+      <c r="Q239" s="35"/>
+      <c r="R239" s="35"/>
+    </row>
+    <row r="240" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
         <v>3</v>
       </c>
@@ -8419,14 +8433,15 @@
       <c r="I240" s="35"/>
       <c r="J240" s="35"/>
       <c r="K240" s="35"/>
-      <c r="L240" s="10"/>
-      <c r="M240" s="10"/>
-      <c r="N240" s="10"/>
-      <c r="O240" s="10"/>
-      <c r="P240" s="10"/>
-      <c r="Q240" s="10"/>
-    </row>
-    <row r="241" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L240" s="35"/>
+      <c r="M240" s="35"/>
+      <c r="N240" s="35"/>
+      <c r="O240" s="35"/>
+      <c r="P240" s="35"/>
+      <c r="Q240" s="35"/>
+      <c r="R240" s="35"/>
+    </row>
+    <row r="241" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
         <v>4</v>
       </c>
@@ -8444,14 +8459,15 @@
       <c r="I241" s="35"/>
       <c r="J241" s="35"/>
       <c r="K241" s="35"/>
-      <c r="L241" s="10"/>
-      <c r="M241" s="10"/>
-      <c r="N241" s="10"/>
-      <c r="O241" s="10"/>
-      <c r="P241" s="10"/>
-      <c r="Q241" s="10"/>
-    </row>
-    <row r="242" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L241" s="35"/>
+      <c r="M241" s="35"/>
+      <c r="N241" s="35"/>
+      <c r="O241" s="35"/>
+      <c r="P241" s="35"/>
+      <c r="Q241" s="35"/>
+      <c r="R241" s="35"/>
+    </row>
+    <row r="242" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
         <v>5</v>
       </c>
@@ -8469,14 +8485,15 @@
       <c r="I242" s="35"/>
       <c r="J242" s="35"/>
       <c r="K242" s="35"/>
-      <c r="L242" s="10"/>
-      <c r="M242" s="10"/>
-      <c r="N242" s="10"/>
-      <c r="O242" s="10"/>
-      <c r="P242" s="10"/>
-      <c r="Q242" s="10"/>
-    </row>
-    <row r="243" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L242" s="35"/>
+      <c r="M242" s="35"/>
+      <c r="N242" s="35"/>
+      <c r="O242" s="35"/>
+      <c r="P242" s="35"/>
+      <c r="Q242" s="35"/>
+      <c r="R242" s="35"/>
+    </row>
+    <row r="243" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
         <v>6</v>
       </c>
@@ -8494,14 +8511,15 @@
       <c r="I243" s="35"/>
       <c r="J243" s="35"/>
       <c r="K243" s="35"/>
-      <c r="L243" s="10"/>
-      <c r="M243" s="10"/>
-      <c r="N243" s="10"/>
-      <c r="O243" s="10"/>
-      <c r="P243" s="10"/>
-      <c r="Q243" s="10"/>
-    </row>
-    <row r="244" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L243" s="35"/>
+      <c r="M243" s="35"/>
+      <c r="N243" s="35"/>
+      <c r="O243" s="35"/>
+      <c r="P243" s="35"/>
+      <c r="Q243" s="35"/>
+      <c r="R243" s="35"/>
+    </row>
+    <row r="244" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="14">
         <v>7</v>
       </c>
@@ -8519,14 +8537,15 @@
       <c r="I244" s="35"/>
       <c r="J244" s="35"/>
       <c r="K244" s="35"/>
-      <c r="L244" s="10"/>
-      <c r="M244" s="10"/>
-      <c r="N244" s="10"/>
-      <c r="O244" s="10"/>
-      <c r="P244" s="10"/>
-      <c r="Q244" s="10"/>
-    </row>
-    <row r="245" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L244" s="35"/>
+      <c r="M244" s="35"/>
+      <c r="N244" s="35"/>
+      <c r="O244" s="35"/>
+      <c r="P244" s="35"/>
+      <c r="Q244" s="35"/>
+      <c r="R244" s="35"/>
+    </row>
+    <row r="245" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="14">
         <v>8</v>
       </c>
@@ -8544,14 +8563,15 @@
       <c r="I245" s="35"/>
       <c r="J245" s="35"/>
       <c r="K245" s="35"/>
-      <c r="L245" s="10"/>
-      <c r="M245" s="10"/>
-      <c r="N245" s="10"/>
-      <c r="O245" s="10"/>
-      <c r="P245" s="10"/>
-      <c r="Q245" s="10"/>
-    </row>
-    <row r="246" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L245" s="35"/>
+      <c r="M245" s="35"/>
+      <c r="N245" s="35"/>
+      <c r="O245" s="35"/>
+      <c r="P245" s="35"/>
+      <c r="Q245" s="35"/>
+      <c r="R245" s="35"/>
+    </row>
+    <row r="246" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="14">
         <v>9</v>
       </c>
@@ -8569,14 +8589,15 @@
       <c r="I246" s="35"/>
       <c r="J246" s="35"/>
       <c r="K246" s="35"/>
-      <c r="L246" s="10"/>
-      <c r="M246" s="10"/>
-      <c r="N246" s="10"/>
-      <c r="O246" s="10"/>
-      <c r="P246" s="10"/>
-      <c r="Q246" s="10"/>
-    </row>
-    <row r="247" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L246" s="35"/>
+      <c r="M246" s="35"/>
+      <c r="N246" s="35"/>
+      <c r="O246" s="35"/>
+      <c r="P246" s="35"/>
+      <c r="Q246" s="35"/>
+      <c r="R246" s="35"/>
+    </row>
+    <row r="247" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="14">
         <v>10</v>
       </c>
@@ -8594,14 +8615,15 @@
       <c r="I247" s="35"/>
       <c r="J247" s="35"/>
       <c r="K247" s="35"/>
-      <c r="L247" s="13"/>
-      <c r="M247" s="13"/>
-      <c r="N247" s="13"/>
-      <c r="O247" s="13"/>
-      <c r="P247" s="13"/>
-      <c r="Q247" s="13"/>
-    </row>
-    <row r="248" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L247" s="35"/>
+      <c r="M247" s="35"/>
+      <c r="N247" s="35"/>
+      <c r="O247" s="35"/>
+      <c r="P247" s="35"/>
+      <c r="Q247" s="35"/>
+      <c r="R247" s="35"/>
+    </row>
+    <row r="248" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="14">
         <v>11</v>
       </c>
@@ -8619,14 +8641,15 @@
       <c r="I248" s="35"/>
       <c r="J248" s="35"/>
       <c r="K248" s="35"/>
-      <c r="L248" s="10"/>
-      <c r="M248" s="10"/>
-      <c r="N248" s="10"/>
-      <c r="O248" s="10"/>
-      <c r="P248" s="10"/>
-      <c r="Q248" s="10"/>
-    </row>
-    <row r="249" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L248" s="35"/>
+      <c r="M248" s="35"/>
+      <c r="N248" s="35"/>
+      <c r="O248" s="35"/>
+      <c r="P248" s="35"/>
+      <c r="Q248" s="35"/>
+      <c r="R248" s="35"/>
+    </row>
+    <row r="249" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="14">
         <v>12</v>
       </c>
@@ -8644,14 +8667,15 @@
       <c r="I249" s="35"/>
       <c r="J249" s="35"/>
       <c r="K249" s="35"/>
-      <c r="L249" s="10"/>
-      <c r="M249" s="10"/>
-      <c r="N249" s="10"/>
-      <c r="O249" s="10"/>
-      <c r="P249" s="10"/>
-      <c r="Q249" s="10"/>
-    </row>
-    <row r="250" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L249" s="35"/>
+      <c r="M249" s="35"/>
+      <c r="N249" s="35"/>
+      <c r="O249" s="35"/>
+      <c r="P249" s="35"/>
+      <c r="Q249" s="35"/>
+      <c r="R249" s="35"/>
+    </row>
+    <row r="250" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="14">
         <v>13</v>
       </c>
@@ -8669,14 +8693,15 @@
       <c r="I250" s="35"/>
       <c r="J250" s="35"/>
       <c r="K250" s="35"/>
-      <c r="L250" s="10"/>
-      <c r="M250" s="10"/>
-      <c r="N250" s="10"/>
-      <c r="O250" s="10"/>
-      <c r="P250" s="10"/>
-      <c r="Q250" s="10"/>
-    </row>
-    <row r="251" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L250" s="35"/>
+      <c r="M250" s="35"/>
+      <c r="N250" s="35"/>
+      <c r="O250" s="35"/>
+      <c r="P250" s="35"/>
+      <c r="Q250" s="35"/>
+      <c r="R250" s="35"/>
+    </row>
+    <row r="251" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="14">
         <v>14</v>
       </c>
@@ -8686,16 +8711,23 @@
       <c r="C251" s="14">
         <v>239.82222957883369</v>
       </c>
-      <c r="J251" s="10"/>
-      <c r="K251" s="10"/>
-      <c r="L251" s="10"/>
-      <c r="M251" s="10"/>
-      <c r="N251" s="10"/>
-      <c r="O251" s="10"/>
-      <c r="P251" s="10"/>
-      <c r="Q251" s="10"/>
-    </row>
-    <row r="252" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D251" s="35"/>
+      <c r="E251" s="35"/>
+      <c r="F251" s="35"/>
+      <c r="G251" s="35"/>
+      <c r="H251" s="35"/>
+      <c r="I251" s="35"/>
+      <c r="J251" s="35"/>
+      <c r="K251" s="35"/>
+      <c r="L251" s="35"/>
+      <c r="M251" s="35"/>
+      <c r="N251" s="35"/>
+      <c r="O251" s="35"/>
+      <c r="P251" s="35"/>
+      <c r="Q251" s="35"/>
+      <c r="R251" s="35"/>
+    </row>
+    <row r="252" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="14">
         <v>15</v>
       </c>
@@ -8705,14 +8737,21 @@
       <c r="C252" s="14">
         <v>-16.612470078478282</v>
       </c>
-      <c r="J252" s="10"/>
-      <c r="K252" s="10"/>
-      <c r="L252" s="10"/>
-      <c r="M252" s="10"/>
-      <c r="N252" s="10"/>
-      <c r="O252" s="10"/>
-      <c r="P252" s="10"/>
-      <c r="Q252" s="10"/>
+      <c r="D252" s="35"/>
+      <c r="E252" s="35"/>
+      <c r="F252" s="35"/>
+      <c r="G252" s="35"/>
+      <c r="H252" s="35"/>
+      <c r="I252" s="35"/>
+      <c r="J252" s="35"/>
+      <c r="K252" s="35"/>
+      <c r="L252" s="35"/>
+      <c r="M252" s="35"/>
+      <c r="N252" s="35"/>
+      <c r="O252" s="35"/>
+      <c r="P252" s="35"/>
+      <c r="Q252" s="35"/>
+      <c r="R252" s="35"/>
     </row>
     <row r="253" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="14">
@@ -9352,7 +9391,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D237:K250"/>
+    <mergeCell ref="D237:R252"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ЭКОНОМЕТРИКА/В процессе/Лаба4(Квартиры).xlsx
+++ b/ЭКОНОМЕТРИКА/В процессе/Лаба4(Квартиры).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Учеба 3 курс 2 семестр\Studies\ЭКОНОМЕТРИКА\В процессе\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090573AA-A9FB-4D18-A06D-FC20AAE0DB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E869F7-73E3-432C-BEF6-DBBCF561E870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -687,11 +687,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -974,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D225" sqref="D225"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3409,7 +3409,10 @@
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
       <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
+      <c r="N52" s="24">
+        <f>AVERAGE(N2:N51)</f>
+        <v>1931.6122</v>
+      </c>
       <c r="O52" s="24"/>
       <c r="P52" s="24"/>
       <c r="Q52" s="25"/>
@@ -8036,7 +8039,7 @@
       <c r="D225" s="14">
         <v>-6.1734140168934699</v>
       </c>
-      <c r="E225" s="36">
+      <c r="E225" s="35">
         <v>2.45141777441226E-7</v>
       </c>
       <c r="F225" s="14">
@@ -8184,7 +8187,7 @@
       <c r="D229" s="14">
         <v>15.488949026197405</v>
       </c>
-      <c r="E229" s="37">
+      <c r="E229" s="36">
         <v>1.45965731295659</v>
       </c>
       <c r="F229" s="14">
@@ -8345,23 +8348,23 @@
       <c r="C237" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="D237" s="35" t="s">
+      <c r="D237" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="E237" s="35"/>
-      <c r="F237" s="35"/>
-      <c r="G237" s="35"/>
-      <c r="H237" s="35"/>
-      <c r="I237" s="35"/>
-      <c r="J237" s="35"/>
-      <c r="K237" s="35"/>
-      <c r="L237" s="35"/>
-      <c r="M237" s="35"/>
-      <c r="N237" s="35"/>
-      <c r="O237" s="35"/>
-      <c r="P237" s="35"/>
-      <c r="Q237" s="35"/>
-      <c r="R237" s="35"/>
+      <c r="E237" s="37"/>
+      <c r="F237" s="37"/>
+      <c r="G237" s="37"/>
+      <c r="H237" s="37"/>
+      <c r="I237" s="37"/>
+      <c r="J237" s="37"/>
+      <c r="K237" s="37"/>
+      <c r="L237" s="37"/>
+      <c r="M237" s="37"/>
+      <c r="N237" s="37"/>
+      <c r="O237" s="37"/>
+      <c r="P237" s="37"/>
+      <c r="Q237" s="37"/>
+      <c r="R237" s="37"/>
     </row>
     <row r="238" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="14">
@@ -8373,21 +8376,21 @@
       <c r="C238" s="14">
         <v>3.0761312518299064</v>
       </c>
-      <c r="D238" s="35"/>
-      <c r="E238" s="35"/>
-      <c r="F238" s="35"/>
-      <c r="G238" s="35"/>
-      <c r="H238" s="35"/>
-      <c r="I238" s="35"/>
-      <c r="J238" s="35"/>
-      <c r="K238" s="35"/>
-      <c r="L238" s="35"/>
-      <c r="M238" s="35"/>
-      <c r="N238" s="35"/>
-      <c r="O238" s="35"/>
-      <c r="P238" s="35"/>
-      <c r="Q238" s="35"/>
-      <c r="R238" s="35"/>
+      <c r="D238" s="37"/>
+      <c r="E238" s="37"/>
+      <c r="F238" s="37"/>
+      <c r="G238" s="37"/>
+      <c r="H238" s="37"/>
+      <c r="I238" s="37"/>
+      <c r="J238" s="37"/>
+      <c r="K238" s="37"/>
+      <c r="L238" s="37"/>
+      <c r="M238" s="37"/>
+      <c r="N238" s="37"/>
+      <c r="O238" s="37"/>
+      <c r="P238" s="37"/>
+      <c r="Q238" s="37"/>
+      <c r="R238" s="37"/>
     </row>
     <row r="239" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="14">
@@ -8399,21 +8402,21 @@
       <c r="C239" s="14">
         <v>-52.096307058174034</v>
       </c>
-      <c r="D239" s="35"/>
-      <c r="E239" s="35"/>
-      <c r="F239" s="35"/>
-      <c r="G239" s="35"/>
-      <c r="H239" s="35"/>
-      <c r="I239" s="35"/>
-      <c r="J239" s="35"/>
-      <c r="K239" s="35"/>
-      <c r="L239" s="35"/>
-      <c r="M239" s="35"/>
-      <c r="N239" s="35"/>
-      <c r="O239" s="35"/>
-      <c r="P239" s="35"/>
-      <c r="Q239" s="35"/>
-      <c r="R239" s="35"/>
+      <c r="D239" s="37"/>
+      <c r="E239" s="37"/>
+      <c r="F239" s="37"/>
+      <c r="G239" s="37"/>
+      <c r="H239" s="37"/>
+      <c r="I239" s="37"/>
+      <c r="J239" s="37"/>
+      <c r="K239" s="37"/>
+      <c r="L239" s="37"/>
+      <c r="M239" s="37"/>
+      <c r="N239" s="37"/>
+      <c r="O239" s="37"/>
+      <c r="P239" s="37"/>
+      <c r="Q239" s="37"/>
+      <c r="R239" s="37"/>
     </row>
     <row r="240" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="14">
@@ -8425,21 +8428,21 @@
       <c r="C240" s="14">
         <v>-61.460037021663766</v>
       </c>
-      <c r="D240" s="35"/>
-      <c r="E240" s="35"/>
-      <c r="F240" s="35"/>
-      <c r="G240" s="35"/>
-      <c r="H240" s="35"/>
-      <c r="I240" s="35"/>
-      <c r="J240" s="35"/>
-      <c r="K240" s="35"/>
-      <c r="L240" s="35"/>
-      <c r="M240" s="35"/>
-      <c r="N240" s="35"/>
-      <c r="O240" s="35"/>
-      <c r="P240" s="35"/>
-      <c r="Q240" s="35"/>
-      <c r="R240" s="35"/>
+      <c r="D240" s="37"/>
+      <c r="E240" s="37"/>
+      <c r="F240" s="37"/>
+      <c r="G240" s="37"/>
+      <c r="H240" s="37"/>
+      <c r="I240" s="37"/>
+      <c r="J240" s="37"/>
+      <c r="K240" s="37"/>
+      <c r="L240" s="37"/>
+      <c r="M240" s="37"/>
+      <c r="N240" s="37"/>
+      <c r="O240" s="37"/>
+      <c r="P240" s="37"/>
+      <c r="Q240" s="37"/>
+      <c r="R240" s="37"/>
     </row>
     <row r="241" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="14">
@@ -8451,21 +8454,21 @@
       <c r="C241" s="14">
         <v>-49.900832483908061</v>
       </c>
-      <c r="D241" s="35"/>
-      <c r="E241" s="35"/>
-      <c r="F241" s="35"/>
-      <c r="G241" s="35"/>
-      <c r="H241" s="35"/>
-      <c r="I241" s="35"/>
-      <c r="J241" s="35"/>
-      <c r="K241" s="35"/>
-      <c r="L241" s="35"/>
-      <c r="M241" s="35"/>
-      <c r="N241" s="35"/>
-      <c r="O241" s="35"/>
-      <c r="P241" s="35"/>
-      <c r="Q241" s="35"/>
-      <c r="R241" s="35"/>
+      <c r="D241" s="37"/>
+      <c r="E241" s="37"/>
+      <c r="F241" s="37"/>
+      <c r="G241" s="37"/>
+      <c r="H241" s="37"/>
+      <c r="I241" s="37"/>
+      <c r="J241" s="37"/>
+      <c r="K241" s="37"/>
+      <c r="L241" s="37"/>
+      <c r="M241" s="37"/>
+      <c r="N241" s="37"/>
+      <c r="O241" s="37"/>
+      <c r="P241" s="37"/>
+      <c r="Q241" s="37"/>
+      <c r="R241" s="37"/>
     </row>
     <row r="242" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="14">
@@ -8477,21 +8480,21 @@
       <c r="C242" s="14">
         <v>68.052338010096037</v>
       </c>
-      <c r="D242" s="35"/>
-      <c r="E242" s="35"/>
-      <c r="F242" s="35"/>
-      <c r="G242" s="35"/>
-      <c r="H242" s="35"/>
-      <c r="I242" s="35"/>
-      <c r="J242" s="35"/>
-      <c r="K242" s="35"/>
-      <c r="L242" s="35"/>
-      <c r="M242" s="35"/>
-      <c r="N242" s="35"/>
-      <c r="O242" s="35"/>
-      <c r="P242" s="35"/>
-      <c r="Q242" s="35"/>
-      <c r="R242" s="35"/>
+      <c r="D242" s="37"/>
+      <c r="E242" s="37"/>
+      <c r="F242" s="37"/>
+      <c r="G242" s="37"/>
+      <c r="H242" s="37"/>
+      <c r="I242" s="37"/>
+      <c r="J242" s="37"/>
+      <c r="K242" s="37"/>
+      <c r="L242" s="37"/>
+      <c r="M242" s="37"/>
+      <c r="N242" s="37"/>
+      <c r="O242" s="37"/>
+      <c r="P242" s="37"/>
+      <c r="Q242" s="37"/>
+      <c r="R242" s="37"/>
     </row>
     <row r="243" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="14">
@@ -8503,21 +8506,21 @@
       <c r="C243" s="14">
         <v>-90.097998314093275</v>
       </c>
-      <c r="D243" s="35"/>
-      <c r="E243" s="35"/>
-      <c r="F243" s="35"/>
-      <c r="G243" s="35"/>
-      <c r="H243" s="35"/>
-      <c r="I243" s="35"/>
-      <c r="J243" s="35"/>
-      <c r="K243" s="35"/>
-      <c r="L243" s="35"/>
-      <c r="M243" s="35"/>
-      <c r="N243" s="35"/>
-      <c r="O243" s="35"/>
-      <c r="P243" s="35"/>
-      <c r="Q243" s="35"/>
-      <c r="R243" s="35"/>
+      <c r="D243" s="37"/>
+      <c r="E243" s="37"/>
+      <c r="F243" s="37"/>
+      <c r="G243" s="37"/>
+      <c r="H243" s="37"/>
+      <c r="I243" s="37"/>
+      <c r="J243" s="37"/>
+      <c r="K243" s="37"/>
+      <c r="L243" s="37"/>
+      <c r="M243" s="37"/>
+      <c r="N243" s="37"/>
+      <c r="O243" s="37"/>
+      <c r="P243" s="37"/>
+      <c r="Q243" s="37"/>
+      <c r="R243" s="37"/>
     </row>
     <row r="244" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="14">
@@ -8529,21 +8532,21 @@
       <c r="C244" s="14">
         <v>-18.376944942457158</v>
       </c>
-      <c r="D244" s="35"/>
-      <c r="E244" s="35"/>
-      <c r="F244" s="35"/>
-      <c r="G244" s="35"/>
-      <c r="H244" s="35"/>
-      <c r="I244" s="35"/>
-      <c r="J244" s="35"/>
-      <c r="K244" s="35"/>
-      <c r="L244" s="35"/>
-      <c r="M244" s="35"/>
-      <c r="N244" s="35"/>
-      <c r="O244" s="35"/>
-      <c r="P244" s="35"/>
-      <c r="Q244" s="35"/>
-      <c r="R244" s="35"/>
+      <c r="D244" s="37"/>
+      <c r="E244" s="37"/>
+      <c r="F244" s="37"/>
+      <c r="G244" s="37"/>
+      <c r="H244" s="37"/>
+      <c r="I244" s="37"/>
+      <c r="J244" s="37"/>
+      <c r="K244" s="37"/>
+      <c r="L244" s="37"/>
+      <c r="M244" s="37"/>
+      <c r="N244" s="37"/>
+      <c r="O244" s="37"/>
+      <c r="P244" s="37"/>
+      <c r="Q244" s="37"/>
+      <c r="R244" s="37"/>
     </row>
     <row r="245" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="14">
@@ -8555,21 +8558,21 @@
       <c r="C245" s="14">
         <v>62.79698096619768</v>
       </c>
-      <c r="D245" s="35"/>
-      <c r="E245" s="35"/>
-      <c r="F245" s="35"/>
-      <c r="G245" s="35"/>
-      <c r="H245" s="35"/>
-      <c r="I245" s="35"/>
-      <c r="J245" s="35"/>
-      <c r="K245" s="35"/>
-      <c r="L245" s="35"/>
-      <c r="M245" s="35"/>
-      <c r="N245" s="35"/>
-      <c r="O245" s="35"/>
-      <c r="P245" s="35"/>
-      <c r="Q245" s="35"/>
-      <c r="R245" s="35"/>
+      <c r="D245" s="37"/>
+      <c r="E245" s="37"/>
+      <c r="F245" s="37"/>
+      <c r="G245" s="37"/>
+      <c r="H245" s="37"/>
+      <c r="I245" s="37"/>
+      <c r="J245" s="37"/>
+      <c r="K245" s="37"/>
+      <c r="L245" s="37"/>
+      <c r="M245" s="37"/>
+      <c r="N245" s="37"/>
+      <c r="O245" s="37"/>
+      <c r="P245" s="37"/>
+      <c r="Q245" s="37"/>
+      <c r="R245" s="37"/>
     </row>
     <row r="246" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="14">
@@ -8581,21 +8584,21 @@
       <c r="C246" s="14">
         <v>84.29132092565942</v>
       </c>
-      <c r="D246" s="35"/>
-      <c r="E246" s="35"/>
-      <c r="F246" s="35"/>
-      <c r="G246" s="35"/>
-      <c r="H246" s="35"/>
-      <c r="I246" s="35"/>
-      <c r="J246" s="35"/>
-      <c r="K246" s="35"/>
-      <c r="L246" s="35"/>
-      <c r="M246" s="35"/>
-      <c r="N246" s="35"/>
-      <c r="O246" s="35"/>
-      <c r="P246" s="35"/>
-      <c r="Q246" s="35"/>
-      <c r="R246" s="35"/>
+      <c r="D246" s="37"/>
+      <c r="E246" s="37"/>
+      <c r="F246" s="37"/>
+      <c r="G246" s="37"/>
+      <c r="H246" s="37"/>
+      <c r="I246" s="37"/>
+      <c r="J246" s="37"/>
+      <c r="K246" s="37"/>
+      <c r="L246" s="37"/>
+      <c r="M246" s="37"/>
+      <c r="N246" s="37"/>
+      <c r="O246" s="37"/>
+      <c r="P246" s="37"/>
+      <c r="Q246" s="37"/>
+      <c r="R246" s="37"/>
     </row>
     <row r="247" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="14">
@@ -8607,21 +8610,21 @@
       <c r="C247" s="14">
         <v>-124.21080129193751</v>
       </c>
-      <c r="D247" s="35"/>
-      <c r="E247" s="35"/>
-      <c r="F247" s="35"/>
-      <c r="G247" s="35"/>
-      <c r="H247" s="35"/>
-      <c r="I247" s="35"/>
-      <c r="J247" s="35"/>
-      <c r="K247" s="35"/>
-      <c r="L247" s="35"/>
-      <c r="M247" s="35"/>
-      <c r="N247" s="35"/>
-      <c r="O247" s="35"/>
-      <c r="P247" s="35"/>
-      <c r="Q247" s="35"/>
-      <c r="R247" s="35"/>
+      <c r="D247" s="37"/>
+      <c r="E247" s="37"/>
+      <c r="F247" s="37"/>
+      <c r="G247" s="37"/>
+      <c r="H247" s="37"/>
+      <c r="I247" s="37"/>
+      <c r="J247" s="37"/>
+      <c r="K247" s="37"/>
+      <c r="L247" s="37"/>
+      <c r="M247" s="37"/>
+      <c r="N247" s="37"/>
+      <c r="O247" s="37"/>
+      <c r="P247" s="37"/>
+      <c r="Q247" s="37"/>
+      <c r="R247" s="37"/>
     </row>
     <row r="248" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="14">
@@ -8633,21 +8636,21 @@
       <c r="C248" s="14">
         <v>218.56408081896052</v>
       </c>
-      <c r="D248" s="35"/>
-      <c r="E248" s="35"/>
-      <c r="F248" s="35"/>
-      <c r="G248" s="35"/>
-      <c r="H248" s="35"/>
-      <c r="I248" s="35"/>
-      <c r="J248" s="35"/>
-      <c r="K248" s="35"/>
-      <c r="L248" s="35"/>
-      <c r="M248" s="35"/>
-      <c r="N248" s="35"/>
-      <c r="O248" s="35"/>
-      <c r="P248" s="35"/>
-      <c r="Q248" s="35"/>
-      <c r="R248" s="35"/>
+      <c r="D248" s="37"/>
+      <c r="E248" s="37"/>
+      <c r="F248" s="37"/>
+      <c r="G248" s="37"/>
+      <c r="H248" s="37"/>
+      <c r="I248" s="37"/>
+      <c r="J248" s="37"/>
+      <c r="K248" s="37"/>
+      <c r="L248" s="37"/>
+      <c r="M248" s="37"/>
+      <c r="N248" s="37"/>
+      <c r="O248" s="37"/>
+      <c r="P248" s="37"/>
+      <c r="Q248" s="37"/>
+      <c r="R248" s="37"/>
     </row>
     <row r="249" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="14">
@@ -8659,21 +8662,21 @@
       <c r="C249" s="14">
         <v>55.445059223416592</v>
       </c>
-      <c r="D249" s="35"/>
-      <c r="E249" s="35"/>
-      <c r="F249" s="35"/>
-      <c r="G249" s="35"/>
-      <c r="H249" s="35"/>
-      <c r="I249" s="35"/>
-      <c r="J249" s="35"/>
-      <c r="K249" s="35"/>
-      <c r="L249" s="35"/>
-      <c r="M249" s="35"/>
-      <c r="N249" s="35"/>
-      <c r="O249" s="35"/>
-      <c r="P249" s="35"/>
-      <c r="Q249" s="35"/>
-      <c r="R249" s="35"/>
+      <c r="D249" s="37"/>
+      <c r="E249" s="37"/>
+      <c r="F249" s="37"/>
+      <c r="G249" s="37"/>
+      <c r="H249" s="37"/>
+      <c r="I249" s="37"/>
+      <c r="J249" s="37"/>
+      <c r="K249" s="37"/>
+      <c r="L249" s="37"/>
+      <c r="M249" s="37"/>
+      <c r="N249" s="37"/>
+      <c r="O249" s="37"/>
+      <c r="P249" s="37"/>
+      <c r="Q249" s="37"/>
+      <c r="R249" s="37"/>
     </row>
     <row r="250" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="14">
@@ -8685,21 +8688,21 @@
       <c r="C250" s="14">
         <v>-221.07830612354155</v>
       </c>
-      <c r="D250" s="35"/>
-      <c r="E250" s="35"/>
-      <c r="F250" s="35"/>
-      <c r="G250" s="35"/>
-      <c r="H250" s="35"/>
-      <c r="I250" s="35"/>
-      <c r="J250" s="35"/>
-      <c r="K250" s="35"/>
-      <c r="L250" s="35"/>
-      <c r="M250" s="35"/>
-      <c r="N250" s="35"/>
-      <c r="O250" s="35"/>
-      <c r="P250" s="35"/>
-      <c r="Q250" s="35"/>
-      <c r="R250" s="35"/>
+      <c r="D250" s="37"/>
+      <c r="E250" s="37"/>
+      <c r="F250" s="37"/>
+      <c r="G250" s="37"/>
+      <c r="H250" s="37"/>
+      <c r="I250" s="37"/>
+      <c r="J250" s="37"/>
+      <c r="K250" s="37"/>
+      <c r="L250" s="37"/>
+      <c r="M250" s="37"/>
+      <c r="N250" s="37"/>
+      <c r="O250" s="37"/>
+      <c r="P250" s="37"/>
+      <c r="Q250" s="37"/>
+      <c r="R250" s="37"/>
     </row>
     <row r="251" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="14">
@@ -8711,21 +8714,21 @@
       <c r="C251" s="14">
         <v>239.82222957883369</v>
       </c>
-      <c r="D251" s="35"/>
-      <c r="E251" s="35"/>
-      <c r="F251" s="35"/>
-      <c r="G251" s="35"/>
-      <c r="H251" s="35"/>
-      <c r="I251" s="35"/>
-      <c r="J251" s="35"/>
-      <c r="K251" s="35"/>
-      <c r="L251" s="35"/>
-      <c r="M251" s="35"/>
-      <c r="N251" s="35"/>
-      <c r="O251" s="35"/>
-      <c r="P251" s="35"/>
-      <c r="Q251" s="35"/>
-      <c r="R251" s="35"/>
+      <c r="D251" s="37"/>
+      <c r="E251" s="37"/>
+      <c r="F251" s="37"/>
+      <c r="G251" s="37"/>
+      <c r="H251" s="37"/>
+      <c r="I251" s="37"/>
+      <c r="J251" s="37"/>
+      <c r="K251" s="37"/>
+      <c r="L251" s="37"/>
+      <c r="M251" s="37"/>
+      <c r="N251" s="37"/>
+      <c r="O251" s="37"/>
+      <c r="P251" s="37"/>
+      <c r="Q251" s="37"/>
+      <c r="R251" s="37"/>
     </row>
     <row r="252" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="14">
@@ -8737,21 +8740,21 @@
       <c r="C252" s="14">
         <v>-16.612470078478282</v>
       </c>
-      <c r="D252" s="35"/>
-      <c r="E252" s="35"/>
-      <c r="F252" s="35"/>
-      <c r="G252" s="35"/>
-      <c r="H252" s="35"/>
-      <c r="I252" s="35"/>
-      <c r="J252" s="35"/>
-      <c r="K252" s="35"/>
-      <c r="L252" s="35"/>
-      <c r="M252" s="35"/>
-      <c r="N252" s="35"/>
-      <c r="O252" s="35"/>
-      <c r="P252" s="35"/>
-      <c r="Q252" s="35"/>
-      <c r="R252" s="35"/>
+      <c r="D252" s="37"/>
+      <c r="E252" s="37"/>
+      <c r="F252" s="37"/>
+      <c r="G252" s="37"/>
+      <c r="H252" s="37"/>
+      <c r="I252" s="37"/>
+      <c r="J252" s="37"/>
+      <c r="K252" s="37"/>
+      <c r="L252" s="37"/>
+      <c r="M252" s="37"/>
+      <c r="N252" s="37"/>
+      <c r="O252" s="37"/>
+      <c r="P252" s="37"/>
+      <c r="Q252" s="37"/>
+      <c r="R252" s="37"/>
     </row>
     <row r="253" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="14">
